--- a/biology/Médecine/Wilhem_Heinrich_Kramer/Wilhem_Heinrich_Kramer.xlsx
+++ b/biology/Médecine/Wilhem_Heinrich_Kramer/Wilhem_Heinrich_Kramer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilhem Heinrich Kramer est un médecin et un naturaliste allemand, né en 1724 à Dresde (Allemagne) et mort le 13 octobre 1765 à Bruck an der Leitha (Basse-Autriche)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilhem Heinrich Kramer est un médecin et un naturaliste allemand, né en 1724 à Dresde (Allemagne) et mort le 13 octobre 1765 à Bruck an der Leitha (Basse-Autriche).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Vienne (Autriche) puis pratique la médecine à Bruck, près de la capitale, pendant au moins quatorze ans.
 Il publie en 1756 un ouvrage intitulé Elenchus Vegetabilium et Animalium per Austriam inferiorem Observatorum, une flore et une faune de Basse Autriche mais surtout un des premiers travaux à adopter la nomenclature binomiale de Carl von Linné (1707-1778). Dans ce livre, Kramer crée le mot pratincola pour la Glaréole qui sera adapté en anglais à la suite des travaux de Thomas Pennant (1726-1798) en 1773.
